--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_19-58.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_19-58.xlsx
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>PENDULINE كرلي كريم</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -2104,17 +2110,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>7.0499999999999998</v>
+        <v>7</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>0.050000000000000003</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2122,7 +2128,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2130,17 +2136,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>221.16</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>1</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2148,7 +2154,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2162,11 +2168,11 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>58</v>
+        <v>221.16</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2174,7 +2180,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2188,11 +2194,11 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>160.55000000000001</v>
+        <v>58</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2200,7 +2206,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2208,17 +2214,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>13</v>
+        <v>160.55000000000001</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2234,17 +2240,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2252,7 +2258,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2260,17 +2266,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2278,7 +2284,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2286,17 +2292,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>115.2</v>
+        <v>20</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2304,7 +2310,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2312,17 +2318,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>28.710000000000001</v>
+        <v>115.2</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2330,7 +2336,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2338,13 +2344,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>30</v>
+        <v>28.710000000000001</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
@@ -2356,7 +2362,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2364,17 +2370,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2382,7 +2388,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2390,17 +2396,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2408,7 +2414,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2416,17 +2422,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2448,11 +2454,11 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2474,11 +2480,11 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2520,17 +2526,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>40.5</v>
+        <v>56</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2538,7 +2544,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2546,17 +2552,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>96</v>
+        <v>40.5</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2572,13 +2578,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2590,7 +2596,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2598,13 +2604,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2630,11 +2636,11 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2650,17 +2656,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2668,7 +2674,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2676,17 +2682,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2694,7 +2700,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2702,13 +2708,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
@@ -2720,7 +2726,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2728,17 +2734,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2746,7 +2752,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2754,17 +2760,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2786,11 +2792,11 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2812,7 +2818,7 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
@@ -2832,17 +2838,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2850,7 +2856,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2858,17 +2864,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2876,7 +2882,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2884,51 +2890,77 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="80" ht="26.25" customHeight="1">
-      <c r="K80" s="11">
-        <v>5839.2700000000004</v>
-      </c>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="12">
-        <v>110</v>
-      </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c t="s" r="F81" s="13">
+    <row r="80" ht="25.5" customHeight="1">
+      <c r="A80" s="6">
+        <v>77</v>
+      </c>
+      <c t="s" r="B80" s="7">
         <v>111</v>
       </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
-      <c t="s" r="I81" s="15">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c t="s" r="H80" s="8">
+        <v>98</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="9">
+        <v>8</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c r="N80" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="K81" s="11">
+        <v>5846.2700000000004</v>
+      </c>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="12">
         <v>112</v>
       </c>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c t="s" r="F82" s="13">
+        <v>113</v>
+      </c>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14"/>
+      <c t="s" r="I82" s="15">
+        <v>114</v>
+      </c>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="239">
+  <mergeCells count="242">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3164,10 +3196,13 @@
     <mergeCell ref="B79:G79"/>
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="I81:N81"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="I82:N82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
